--- a/Ox Metrics GVAR/Ox Scripts/Dicionario Ox-GVAR.xlsx
+++ b/Ox Metrics GVAR/Ox Scripts/Dicionario Ox-GVAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\Tese\Ox Metrics GVAR\Ox Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009F3EA1-40FB-444D-A28B-BAFAE9AE2C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB611B2-62BD-4C3E-AD12-525181CA7CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29700" yWindow="3885" windowWidth="27075" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dicionario Ox-GVAR" sheetId="1" r:id="rId1"/>
@@ -65501,11 +65501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A492" sqref="A492"/>
+    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="J533" sqref="J533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65534,7 +65533,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11001</v>
       </c>
@@ -65556,7 +65555,7 @@
         <v>538380</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11002</v>
       </c>
@@ -65579,7 +65578,7 @@
         <v>71365</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11003</v>
       </c>
@@ -65602,7 +65601,7 @@
         <v>171099</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11004</v>
       </c>
@@ -65625,7 +65624,7 @@
         <v>295494</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11005</v>
       </c>
@@ -65648,7 +65647,7 @@
         <v>70182</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11006</v>
       </c>
@@ -65671,7 +65670,7 @@
         <v>228320</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11007</v>
       </c>
@@ -65694,7 +65693,7 @@
         <v>132596</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11008</v>
       </c>
@@ -65717,7 +65716,7 @@
         <v>53065</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12001</v>
       </c>
@@ -65740,7 +65739,7 @@
         <v>131396</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12002</v>
       </c>
@@ -65763,7 +65762,7 @@
         <v>74368</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12003</v>
       </c>
@@ -65786,7 +65785,7 @@
         <v>50594</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12004</v>
       </c>
@@ -65809,7 +65808,7 @@
         <v>417780</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12005</v>
       </c>
@@ -65832,7 +65831,7 @@
         <v>58655</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13001</v>
       </c>
@@ -65855,7 +65854,7 @@
         <v>95928</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13002</v>
       </c>
@@ -65878,7 +65877,7 @@
         <v>24653</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13003</v>
       </c>
@@ -65901,7 +65900,7 @@
         <v>224068</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13004</v>
       </c>
@@ -65924,7 +65923,7 @@
         <v>127829</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13005</v>
       </c>
@@ -65947,7 +65946,7 @@
         <v>87385</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13006</v>
       </c>
@@ -65970,7 +65969,7 @@
         <v>151919</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13007</v>
       </c>
@@ -65993,7 +65992,7 @@
         <v>2039681</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13008</v>
       </c>
@@ -66016,7 +66015,7 @@
         <v>52879</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13009</v>
       </c>
@@ -66039,7 +66038,7 @@
         <v>151977</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>13010</v>
       </c>
@@ -66062,7 +66061,7 @@
         <v>250361</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>13011</v>
       </c>
@@ -66085,7 +66084,7 @@
         <v>48033</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13012</v>
       </c>
@@ -66108,7 +66107,7 @@
         <v>69378</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13013</v>
       </c>
@@ -66131,7 +66130,7 @@
         <v>165027</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14001</v>
       </c>
@@ -66154,7 +66153,7 @@
         <v>320322</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14002</v>
       </c>
@@ -66177,7 +66176,7 @@
         <v>41802</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14003</v>
       </c>
@@ -66200,7 +66199,7 @@
         <v>41874</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14004</v>
       </c>
@@ -66223,7 +66222,7 @@
         <v>47229</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15001</v>
       </c>
@@ -66246,7 +66245,7 @@
         <v>176292</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15002</v>
       </c>
@@ -66269,7 +66268,7 @@
         <v>499960</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15003</v>
       </c>
@@ -66292,7 +66291,7 @@
         <v>33951</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15004</v>
       </c>
@@ -66315,7 +66314,7 @@
         <v>129870</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15005</v>
       </c>
@@ -66338,7 +66337,7 @@
         <v>204125</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>15006</v>
       </c>
@@ -66361,7 +66360,7 @@
         <v>153166</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>15007</v>
       </c>
@@ -66384,7 +66383,7 @@
         <v>2140643</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>15008</v>
       </c>
@@ -66407,7 +66406,7 @@
         <v>295009</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>15009</v>
       </c>
@@ -66430,7 +66429,7 @@
         <v>247354</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>15010</v>
       </c>
@@ -66453,7 +66452,7 @@
         <v>382812</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15011</v>
       </c>
@@ -66476,7 +66475,7 @@
         <v>437256</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>15012</v>
       </c>
@@ -66499,7 +66498,7 @@
         <v>287560</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15013</v>
       </c>
@@ -66522,7 +66521,7 @@
         <v>434574</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15014</v>
       </c>
@@ -66545,7 +66544,7 @@
         <v>209209</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15015</v>
       </c>
@@ -66568,7 +66567,7 @@
         <v>297336</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>15016</v>
       </c>
@@ -66591,7 +66590,7 @@
         <v>329008</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>15017</v>
       </c>
@@ -66614,7 +66613,7 @@
         <v>291900</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15018</v>
       </c>
@@ -66637,7 +66636,7 @@
         <v>166420</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>15019</v>
       </c>
@@ -66660,7 +66659,7 @@
         <v>255770</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15020</v>
       </c>
@@ -66683,7 +66682,7 @@
         <v>284562</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15021</v>
       </c>
@@ -66706,7 +66705,7 @@
         <v>194647</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>15022</v>
       </c>
@@ -66729,7 +66728,7 @@
         <v>136685</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>16001</v>
       </c>
@@ -66752,7 +66751,7 @@
         <v>29390</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16002</v>
       </c>
@@ -66775,7 +66774,7 @@
         <v>24223</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16003</v>
       </c>
@@ -66798,7 +66797,7 @@
         <v>545796</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16004</v>
       </c>
@@ -66821,7 +66820,7 @@
         <v>102945</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>17001</v>
       </c>
@@ -66844,7 +66843,7 @@
         <v>212737</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>17002</v>
       </c>
@@ -66867,7 +66866,7 @@
         <v>258805</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>17003</v>
       </c>
@@ -66890,7 +66889,7 @@
         <v>147346</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>17004</v>
       </c>
@@ -66913,7 +66912,7 @@
         <v>116001</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>17005</v>
       </c>
@@ -66936,7 +66935,7 @@
         <v>137233</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>17006</v>
       </c>
@@ -66959,7 +66958,7 @@
         <v>317631</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>17007</v>
       </c>
@@ -66982,7 +66981,7 @@
         <v>71941</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>17008</v>
       </c>
@@ -67005,7 +67004,7 @@
         <v>118121</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>21001</v>
       </c>
@@ -67028,7 +67027,7 @@
         <v>183898</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>21002</v>
       </c>
@@ -67051,7 +67050,7 @@
         <v>1306029</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>21003</v>
       </c>
@@ -67074,7 +67073,7 @@
         <v>161268</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>21004</v>
       </c>
@@ -67097,7 +67096,7 @@
         <v>176114</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>21005</v>
       </c>
@@ -67120,7 +67119,7 @@
         <v>586727</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>21006</v>
       </c>
@@ -67143,7 +67142,7 @@
         <v>210676</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>21007</v>
       </c>
@@ -67166,7 +67165,7 @@
         <v>198763</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>21008</v>
       </c>
@@ -67189,7 +67188,7 @@
         <v>621803</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>21009</v>
       </c>
@@ -67212,7 +67211,7 @@
         <v>566701</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>21010</v>
       </c>
@@ -67235,7 +67234,7 @@
         <v>411884</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>21011</v>
       </c>
@@ -67258,7 +67257,7 @@
         <v>311548</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>21012</v>
       </c>
@@ -67281,7 +67280,7 @@
         <v>191029</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>21013</v>
       </c>
@@ -67304,7 +67303,7 @@
         <v>139136</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>21014</v>
       </c>
@@ -67327,7 +67326,7 @@
         <v>219678</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>21015</v>
       </c>
@@ -67350,7 +67349,7 @@
         <v>263300</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>21016</v>
       </c>
@@ -67373,7 +67372,7 @@
         <v>87335</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>21017</v>
       </c>
@@ -67396,7 +67395,7 @@
         <v>260735</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>21018</v>
       </c>
@@ -67419,7 +67418,7 @@
         <v>179394</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>21019</v>
       </c>
@@ -67442,7 +67441,7 @@
         <v>101997</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>21020</v>
       </c>
@@ -67465,7 +67464,7 @@
         <v>136532</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>21021</v>
       </c>
@@ -67488,7 +67487,7 @@
         <v>62538</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>22001</v>
       </c>
@@ -67511,7 +67510,7 @@
         <v>329404</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>22002</v>
       </c>
@@ -67534,7 +67533,7 @@
         <v>303544</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>22003</v>
       </c>
@@ -67557,7 +67556,7 @@
         <v>1154845</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>22004</v>
       </c>
@@ -67580,7 +67579,7 @@
         <v>220421</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>22005</v>
       </c>
@@ -67603,7 +67602,7 @@
         <v>143019</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>22006</v>
       </c>
@@ -67626,7 +67625,7 @@
         <v>104016</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>22007</v>
       </c>
@@ -67649,7 +67648,7 @@
         <v>42982</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>22008</v>
       </c>
@@ -67672,7 +67671,7 @@
         <v>40688</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22009</v>
       </c>
@@ -67695,7 +67694,7 @@
         <v>139540</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>22010</v>
       </c>
@@ -67718,7 +67717,7 @@
         <v>88078</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>22011</v>
       </c>
@@ -67741,7 +67740,7 @@
         <v>135161</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>22012</v>
       </c>
@@ -67764,7 +67763,7 @@
         <v>82578</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>22013</v>
       </c>
@@ -67787,7 +67786,7 @@
         <v>199654</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>22014</v>
       </c>
@@ -67810,7 +67809,7 @@
         <v>57888</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>22015</v>
       </c>
@@ -67833,7 +67832,7 @@
         <v>254139</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>23001</v>
       </c>
@@ -67856,7 +67855,7 @@
         <v>360914</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>23002</v>
       </c>
@@ -67879,7 +67878,7 @@
         <v>295250</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>23003</v>
       </c>
@@ -67902,7 +67901,7 @@
         <v>55972</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>23004</v>
       </c>
@@ -67925,7 +67924,7 @@
         <v>24466</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>23005</v>
       </c>
@@ -67948,7 +67947,7 @@
         <v>380950</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>23006</v>
       </c>
@@ -67971,7 +67970,7 @@
         <v>137437</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>23007</v>
       </c>
@@ -67994,7 +67993,7 @@
         <v>72052</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>23008</v>
       </c>
@@ -68017,7 +68016,7 @@
         <v>206730</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>23009</v>
       </c>
@@ -68040,7 +68039,7 @@
         <v>105626</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>23010</v>
       </c>
@@ -68063,7 +68062,7 @@
         <v>101353</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>23011</v>
       </c>
@@ -68086,7 +68085,7 @@
         <v>84727</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23012</v>
       </c>
@@ -68109,7 +68108,7 @@
         <v>124708</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>23013</v>
       </c>
@@ -68132,7 +68131,7 @@
         <v>186971</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>23014</v>
       </c>
@@ -68155,7 +68154,7 @@
         <v>62506</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>23015</v>
       </c>
@@ -68178,7 +68177,7 @@
         <v>134149</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>23016</v>
       </c>
@@ -68201,7 +68200,7 @@
         <v>3345697</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>23017</v>
       </c>
@@ -68224,7 +68223,7 @@
         <v>117000</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>23018</v>
       </c>
@@ -68247,7 +68246,7 @@
         <v>240791</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>23019</v>
       </c>
@@ -68270,7 +68269,7 @@
         <v>266224</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>23020</v>
       </c>
@@ -68293,7 +68292,7 @@
         <v>145438</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>23021</v>
       </c>
@@ -68316,7 +68315,7 @@
         <v>217644</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>23022</v>
       </c>
@@ -68339,7 +68338,7 @@
         <v>109732</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>23023</v>
       </c>
@@ -68362,7 +68361,7 @@
         <v>313596</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>23024</v>
       </c>
@@ -68385,7 +68384,7 @@
         <v>62688</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>23025</v>
       </c>
@@ -68408,7 +68407,7 @@
         <v>42471</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>23026</v>
       </c>
@@ -68431,7 +68430,7 @@
         <v>222906</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>23027</v>
       </c>
@@ -68454,7 +68453,7 @@
         <v>96712</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>23028</v>
       </c>
@@ -68477,7 +68476,7 @@
         <v>56681</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>23029</v>
       </c>
@@ -68500,7 +68499,7 @@
         <v>95376</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>23030</v>
       </c>
@@ -68523,7 +68522,7 @@
         <v>56871</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>23031</v>
       </c>
@@ -68546,7 +68545,7 @@
         <v>90318</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>23032</v>
       </c>
@@ -68569,7 +68568,7 @@
         <v>534228</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>23033</v>
       </c>
@@ -68592,7 +68591,7 @@
         <v>99871</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>24001</v>
       </c>
@@ -68615,7 +68614,7 @@
         <v>332697</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>24002</v>
       </c>
@@ -68638,7 +68637,7 @@
         <v>72466</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>24003</v>
       </c>
@@ -68661,7 +68660,7 @@
         <v>39040</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>24004</v>
       </c>
@@ -68684,7 +68683,7 @@
         <v>140584</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>24005</v>
       </c>
@@ -68707,7 +68706,7 @@
         <v>62766</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24006</v>
       </c>
@@ -68730,7 +68729,7 @@
         <v>114231</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24007</v>
       </c>
@@ -68753,7 +68752,7 @@
         <v>65024</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>24008</v>
       </c>
@@ -68776,7 +68775,7 @@
         <v>52545</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>24009</v>
       </c>
@@ -68799,7 +68798,7 @@
         <v>51329</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>24010</v>
       </c>
@@ -68822,7 +68821,7 @@
         <v>61524</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>24011</v>
       </c>
@@ -68845,7 +68844,7 @@
         <v>97692</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>24012</v>
       </c>
@@ -68868,7 +68867,7 @@
         <v>118840</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>24013</v>
       </c>
@@ -68891,7 +68890,7 @@
         <v>62901</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>24014</v>
       </c>
@@ -68914,7 +68913,7 @@
         <v>134060</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>24015</v>
       </c>
@@ -68937,7 +68936,7 @@
         <v>229881</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>24016</v>
       </c>
@@ -68960,7 +68959,7 @@
         <v>84026</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>24017</v>
       </c>
@@ -68983,7 +68982,7 @@
         <v>131433</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>24018</v>
       </c>
@@ -69006,7 +69005,7 @@
         <v>1188012</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24019</v>
       </c>
@@ -69029,7 +69028,7 @@
         <v>129082</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>25001</v>
       </c>
@@ -69052,7 +69051,7 @@
         <v>116065</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>25002</v>
       </c>
@@ -69075,7 +69074,7 @@
         <v>167970</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>25003</v>
       </c>
@@ -69098,7 +69097,7 @@
         <v>181850</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>25004</v>
       </c>
@@ -69121,7 +69120,7 @@
         <v>126704</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>25005</v>
       </c>
@@ -69144,7 +69143,7 @@
         <v>70696</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>25006</v>
       </c>
@@ -69167,7 +69166,7 @@
         <v>84041</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>25007</v>
       </c>
@@ -69190,7 +69189,7 @@
         <v>115888</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>25008</v>
       </c>
@@ -69213,7 +69212,7 @@
         <v>39142</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>25009</v>
       </c>
@@ -69236,7 +69235,7 @@
         <v>73911</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>25010</v>
       </c>
@@ -69259,7 +69258,7 @@
         <v>121544</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>25011</v>
       </c>
@@ -69282,7 +69281,7 @@
         <v>63707</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>25012</v>
       </c>
@@ -69305,7 +69304,7 @@
         <v>119703</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>25013</v>
       </c>
@@ -69328,7 +69327,7 @@
         <v>115296</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>25014</v>
       </c>
@@ -69351,7 +69350,7 @@
         <v>53596</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>25015</v>
       </c>
@@ -69374,7 +69373,7 @@
         <v>94648</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>25016</v>
       </c>
@@ -69397,7 +69396,7 @@
         <v>164827</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>25017</v>
       </c>
@@ -69420,7 +69419,7 @@
         <v>502767</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>25018</v>
       </c>
@@ -69443,7 +69442,7 @@
         <v>108562</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>25019</v>
       </c>
@@ -69466,7 +69465,7 @@
         <v>53992</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>25020</v>
       </c>
@@ -69489,7 +69488,7 @@
         <v>142073</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>25021</v>
       </c>
@@ -69512,7 +69511,7 @@
         <v>122503</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>25022</v>
       </c>
@@ -69535,7 +69534,7 @@
         <v>1034679</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>25023</v>
       </c>
@@ -69558,7 +69557,7 @@
         <v>55396</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>26001</v>
       </c>
@@ -69581,7 +69580,7 @@
         <v>315468</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>26002</v>
       </c>
@@ -69604,7 +69603,7 @@
         <v>162047</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>26003</v>
       </c>
@@ -69627,7 +69626,7 @@
         <v>314642</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>26004</v>
       </c>
@@ -69650,7 +69649,7 @@
         <v>213417</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>26005</v>
       </c>
@@ -69673,7 +69672,7 @@
         <v>642075</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>26006</v>
       </c>
@@ -69696,7 +69695,7 @@
         <v>134211</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>26007</v>
       </c>
@@ -69719,7 +69718,7 @@
         <v>179529</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>26008</v>
       </c>
@@ -69742,7 +69741,7 @@
         <v>832670</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>26009</v>
       </c>
@@ -69765,7 +69764,7 @@
         <v>273742</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>26010</v>
       </c>
@@ -69788,7 +69787,7 @@
         <v>253339</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>26011</v>
       </c>
@@ -69811,7 +69810,7 @@
         <v>461524</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>26012</v>
       </c>
@@ -69834,7 +69833,7 @@
         <v>216408</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>26013</v>
       </c>
@@ -69857,7 +69856,7 @@
         <v>521643</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>26014</v>
       </c>
@@ -69880,7 +69879,7 @@
         <v>216643</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>26015</v>
       </c>
@@ -69926,7 +69925,7 @@
         <v>3739802</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>26019</v>
       </c>
@@ -69949,7 +69948,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>27001</v>
       </c>
@@ -69972,7 +69971,7 @@
         <v>89474</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>27002</v>
       </c>
@@ -69995,7 +69994,7 @@
         <v>79633</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>27003</v>
       </c>
@@ -70018,7 +70017,7 @@
         <v>171286</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>27004</v>
       </c>
@@ -70041,7 +70040,7 @@
         <v>92352</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>27005</v>
       </c>
@@ -70064,7 +70063,7 @@
         <v>175213</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>27006</v>
       </c>
@@ -70087,7 +70086,7 @@
         <v>410890</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>27007</v>
       </c>
@@ -70110,7 +70109,7 @@
         <v>37387</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>27008</v>
       </c>
@@ -70133,7 +70132,7 @@
         <v>146640</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>27009</v>
       </c>
@@ -70156,7 +70155,7 @@
         <v>285870</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>27010</v>
       </c>
@@ -70179,7 +70178,7 @@
         <v>85031</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>27011</v>
       </c>
@@ -70202,7 +70201,7 @@
         <v>1156278</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>27012</v>
       </c>
@@ -70225,7 +70224,7 @@
         <v>284488</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>27013</v>
       </c>
@@ -70248,7 +70247,7 @@
         <v>143063</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>28001</v>
       </c>
@@ -70271,7 +70270,7 @@
         <v>156232</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>28002</v>
       </c>
@@ -70294,7 +70293,7 @@
         <v>68458</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>28003</v>
       </c>
@@ -70317,7 +70316,7 @@
         <v>62963</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>28004</v>
       </c>
@@ -70340,7 +70339,7 @@
         <v>160387</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>28005</v>
       </c>
@@ -70363,7 +70362,7 @@
         <v>108731</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>28006</v>
       </c>
@@ -70386,7 +70385,7 @@
         <v>114246</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>28007</v>
       </c>
@@ -70409,7 +70408,7 @@
         <v>72642</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>28008</v>
       </c>
@@ -70432,7 +70431,7 @@
         <v>34521</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>28009</v>
       </c>
@@ -70455,7 +70454,7 @@
         <v>54722</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>28010</v>
       </c>
@@ -70478,7 +70477,7 @@
         <v>11389</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>28011</v>
       </c>
@@ -70501,7 +70500,7 @@
         <v>926214</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>28012</v>
       </c>
@@ -70524,7 +70523,7 @@
         <v>154348</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>28013</v>
       </c>
@@ -70547,7 +70546,7 @@
         <v>124667</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>29001</v>
       </c>
@@ -70570,7 +70569,7 @@
         <v>286246</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>29002</v>
       </c>
@@ -70593,7 +70592,7 @@
         <v>114886</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>29003</v>
       </c>
@@ -70616,7 +70615,7 @@
         <v>178317</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>29004</v>
       </c>
@@ -70639,7 +70638,7 @@
         <v>256583</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>29005</v>
       </c>
@@ -70662,7 +70661,7 @@
         <v>167144</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>29006</v>
       </c>
@@ -70685,7 +70684,7 @@
         <v>171681</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>29007</v>
       </c>
@@ -70708,7 +70707,7 @@
         <v>171237</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>29008</v>
       </c>
@@ -70731,7 +70730,7 @@
         <v>286837</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>29009</v>
       </c>
@@ -70754,7 +70753,7 @@
         <v>373515</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>29010</v>
       </c>
@@ -70777,7 +70776,7 @@
         <v>327046</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>29011</v>
       </c>
@@ -70800,7 +70799,7 @@
         <v>249389</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>29012</v>
       </c>
@@ -70823,7 +70822,7 @@
         <v>992989</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>29013</v>
       </c>
@@ -70846,7 +70845,7 @@
         <v>99384</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>29014</v>
       </c>
@@ -70869,7 +70868,7 @@
         <v>298267</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>29015</v>
       </c>
@@ -70892,7 +70891,7 @@
         <v>309489</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>29016</v>
       </c>
@@ -70915,7 +70914,7 @@
         <v>414844</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>29017</v>
       </c>
@@ -70938,7 +70937,7 @@
         <v>308379</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>29018</v>
       </c>
@@ -70961,7 +70960,7 @@
         <v>115348</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>29019</v>
       </c>
@@ -70984,7 +70983,7 @@
         <v>129726</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>29020</v>
       </c>
@@ -71007,7 +71006,7 @@
         <v>539855</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>29021</v>
       </c>
@@ -71030,7 +71029,7 @@
         <v>3541740</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>29022</v>
       </c>
@@ -71053,7 +71052,7 @@
         <v>187461</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>29023</v>
       </c>
@@ -71076,7 +71075,7 @@
         <v>254189</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>29024</v>
       </c>
@@ -71099,7 +71098,7 @@
         <v>507388</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>29025</v>
       </c>
@@ -71122,7 +71121,7 @@
         <v>97836</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>29026</v>
       </c>
@@ -71145,7 +71144,7 @@
         <v>371401</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>29027</v>
       </c>
@@ -71168,7 +71167,7 @@
         <v>235843</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>29028</v>
       </c>
@@ -71191,7 +71190,7 @@
         <v>626487</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>29029</v>
       </c>
@@ -71214,7 +71213,7 @@
         <v>197937</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>29030</v>
       </c>
@@ -71237,7 +71236,7 @@
         <v>263304</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>29031</v>
       </c>
@@ -71260,7 +71259,7 @@
         <v>1020793</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>29032</v>
       </c>
@@ -71283,7 +71282,7 @@
         <v>727907</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>31001</v>
       </c>
@@ -71306,7 +71305,7 @@
         <v>148829</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>31002</v>
       </c>
@@ -71329,7 +71328,7 @@
         <v>217555</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>31003</v>
       </c>
@@ -71352,7 +71351,7 @@
         <v>274186</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>31004</v>
       </c>
@@ -71375,7 +71374,7 @@
         <v>247505</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>31005</v>
       </c>
@@ -71398,7 +71397,7 @@
         <v>210720</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>31006</v>
       </c>
@@ -71421,7 +71420,7 @@
         <v>164941</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>31007</v>
       </c>
@@ -71444,7 +71443,7 @@
         <v>602000</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>31008</v>
       </c>
@@ -71467,7 +71466,7 @@
         <v>42665</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>31009</v>
       </c>
@@ -71490,7 +71489,7 @@
         <v>68570</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>31010</v>
       </c>
@@ -71513,7 +71512,7 @@
         <v>82694</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>31011</v>
       </c>
@@ -71536,7 +71535,7 @@
         <v>197510</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>31012</v>
       </c>
@@ -71559,7 +71558,7 @@
         <v>163161</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>31013</v>
       </c>
@@ -71582,7 +71581,7 @@
         <v>83152</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>31014</v>
       </c>
@@ -71605,7 +71604,7 @@
         <v>179711</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>31015</v>
       </c>
@@ -71628,7 +71627,7 @@
         <v>259956</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>31016</v>
       </c>
@@ -71651,7 +71650,7 @@
         <v>118758</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>31017</v>
       </c>
@@ -71674,7 +71673,7 @@
         <v>143362</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>31018</v>
       </c>
@@ -71697,7 +71696,7 @@
         <v>810335</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>31019</v>
       </c>
@@ -71720,7 +71719,7 @@
         <v>197806</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>31020</v>
       </c>
@@ -71743,7 +71742,7 @@
         <v>253384</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>31021</v>
       </c>
@@ -71766,7 +71765,7 @@
         <v>185519</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>31022</v>
       </c>
@@ -71789,7 +71788,7 @@
         <v>337938</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>31023</v>
       </c>
@@ -71812,7 +71811,7 @@
         <v>204475</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>31024</v>
       </c>
@@ -71835,7 +71834,7 @@
         <v>96831</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>31025</v>
       </c>
@@ -71858,7 +71857,7 @@
         <v>150661</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>31026</v>
       </c>
@@ -71881,7 +71880,7 @@
         <v>161994</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>31027</v>
       </c>
@@ -71904,7 +71903,7 @@
         <v>392820</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>31028</v>
       </c>
@@ -71927,7 +71926,7 @@
         <v>84621</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>31029</v>
       </c>
@@ -71973,7 +71972,7 @@
         <v>4772563</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>31031</v>
       </c>
@@ -71996,7 +71995,7 @@
         <v>378853</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>31032</v>
       </c>
@@ -72019,7 +72018,7 @@
         <v>46084</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>31033</v>
       </c>
@@ -72042,7 +72041,7 @@
         <v>173738</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>31034</v>
       </c>
@@ -72065,7 +72064,7 @@
         <v>252706</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>31035</v>
       </c>
@@ -72088,7 +72087,7 @@
         <v>130992</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>31036</v>
       </c>
@@ -72111,7 +72110,7 @@
         <v>81527</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>31037</v>
       </c>
@@ -72134,7 +72133,7 @@
         <v>415611</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>31038</v>
       </c>
@@ -72157,7 +72156,7 @@
         <v>63207</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>31039</v>
       </c>
@@ -72180,7 +72179,7 @@
         <v>547174</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>31040</v>
       </c>
@@ -72203,7 +72202,7 @@
         <v>232773</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>31041</v>
       </c>
@@ -72226,7 +72225,7 @@
         <v>149456</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>31042</v>
       </c>
@@ -72249,7 +72248,7 @@
         <v>81622</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>31043</v>
       </c>
@@ -72272,7 +72271,7 @@
         <v>491505</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>31044</v>
       </c>
@@ -72295,7 +72294,7 @@
         <v>152127</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>31045</v>
       </c>
@@ -72318,7 +72317,7 @@
         <v>111793</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>31046</v>
       </c>
@@ -72341,7 +72340,7 @@
         <v>125997</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>31047</v>
       </c>
@@ -72364,7 +72363,7 @@
         <v>221918</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>31048</v>
       </c>
@@ -72387,7 +72386,7 @@
         <v>265905</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>31049</v>
       </c>
@@ -72410,7 +72409,7 @@
         <v>225289</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>31050</v>
       </c>
@@ -72433,7 +72432,7 @@
         <v>441180</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>31051</v>
       </c>
@@ -72456,7 +72455,7 @@
         <v>342238</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>31052</v>
       </c>
@@ -72479,7 +72478,7 @@
         <v>326395</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>31053</v>
       </c>
@@ -72502,7 +72501,7 @@
         <v>136205</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>31054</v>
       </c>
@@ -72525,7 +72524,7 @@
         <v>208389</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>31055</v>
       </c>
@@ -72548,7 +72547,7 @@
         <v>73871</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>31056</v>
       </c>
@@ -72571,7 +72570,7 @@
         <v>193234</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>31057</v>
       </c>
@@ -72594,7 +72593,7 @@
         <v>149646</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>31058</v>
       </c>
@@ -72617,7 +72616,7 @@
         <v>182700</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>31059</v>
       </c>
@@ -72640,7 +72639,7 @@
         <v>222054</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>31060</v>
       </c>
@@ -72663,7 +72662,7 @@
         <v>187117</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>31061</v>
       </c>
@@ -72686,7 +72685,7 @@
         <v>273874</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>31062</v>
       </c>
@@ -72709,7 +72708,7 @@
         <v>221636</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>31063</v>
       </c>
@@ -72732,7 +72731,7 @@
         <v>276129</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>31064</v>
       </c>
@@ -72755,7 +72754,7 @@
         <v>269600</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>31065</v>
       </c>
@@ -72778,7 +72777,7 @@
         <v>718333</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>31066</v>
       </c>
@@ -72801,7 +72800,7 @@
         <v>223772</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>32001</v>
       </c>
@@ -72824,7 +72823,7 @@
         <v>89204</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>32002</v>
       </c>
@@ -72847,7 +72846,7 @@
         <v>124097</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>32003</v>
       </c>
@@ -72870,7 +72869,7 @@
         <v>199700</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>32004</v>
       </c>
@@ -72893,7 +72892,7 @@
         <v>54396</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>32005</v>
       </c>
@@ -72916,7 +72915,7 @@
         <v>186051</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>32006</v>
       </c>
@@ -72939,7 +72938,7 @@
         <v>291364</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>32007</v>
       </c>
@@ -72962,7 +72961,7 @@
         <v>132059</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>32008</v>
       </c>
@@ -72985,7 +72984,7 @@
         <v>104550</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>32009</v>
       </c>
@@ -73008,7 +73007,7 @@
         <v>1580157</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>32010</v>
       </c>
@@ -73031,7 +73030,7 @@
         <v>185051</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>32011</v>
       </c>
@@ -73054,7 +73053,7 @@
         <v>158317</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>32012</v>
       </c>
@@ -73077,7 +73076,7 @@
         <v>322797</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>32013</v>
       </c>
@@ -73100,7 +73099,7 @@
         <v>75450</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>33001</v>
       </c>
@@ -73123,7 +73122,7 @@
         <v>204608</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>33002</v>
       </c>
@@ -73146,7 +73145,7 @@
         <v>132713</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>33003</v>
       </c>
@@ -73169,7 +73168,7 @@
         <v>587762</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>33004</v>
       </c>
@@ -73192,7 +73191,7 @@
         <v>402670</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>33005</v>
       </c>
@@ -73215,7 +73214,7 @@
         <v>133413</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>33006</v>
       </c>
@@ -73238,7 +73237,7 @@
         <v>62937</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>33007</v>
       </c>
@@ -73261,7 +73260,7 @@
         <v>233267</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>33008</v>
       </c>
@@ -73284,7 +73283,7 @@
         <v>29508</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>33009</v>
       </c>
@@ -73307,7 +73306,7 @@
         <v>21360</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>33010</v>
       </c>
@@ -73330,7 +73329,7 @@
         <v>464429</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>33011</v>
       </c>
@@ -73353,7 +73352,7 @@
         <v>680349</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>33012</v>
       </c>
@@ -73376,7 +73375,7 @@
         <v>180586</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>33013</v>
       </c>
@@ -73399,7 +73398,7 @@
         <v>206845</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>33014</v>
       </c>
@@ -73422,7 +73421,7 @@
         <v>116646</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>33015</v>
       </c>
@@ -73445,7 +73444,7 @@
         <v>491522</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>33016</v>
       </c>
@@ -73491,7 +73490,7 @@
         <v>11949284</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>35001</v>
       </c>
@@ -73514,7 +73513,7 @@
         <v>149188</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>35002</v>
       </c>
@@ -73537,7 +73536,7 @@
         <v>104643</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>35003</v>
       </c>
@@ -73560,7 +73559,7 @@
         <v>142538</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>35004</v>
       </c>
@@ -73583,7 +73582,7 @@
         <v>772280</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>35005</v>
       </c>
@@ -73606,7 +73605,7 @@
         <v>224138</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>35006</v>
       </c>
@@ -73629,7 +73628,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>35007</v>
       </c>
@@ -73652,7 +73651,7 @@
         <v>51404</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>35008</v>
       </c>
@@ -73675,7 +73674,7 @@
         <v>76619</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>35009</v>
       </c>
@@ -73698,7 +73697,7 @@
         <v>129475</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>35010</v>
       </c>
@@ -73721,7 +73720,7 @@
         <v>211409</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>35011</v>
       </c>
@@ -73744,7 +73743,7 @@
         <v>103835</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>35012</v>
       </c>
@@ -73767,7 +73766,7 @@
         <v>391406</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>35013</v>
       </c>
@@ -73790,7 +73789,7 @@
         <v>408240</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>35014</v>
       </c>
@@ -73813,7 +73812,7 @@
         <v>1035017</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>35015</v>
       </c>
@@ -73836,7 +73835,7 @@
         <v>104399</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>35016</v>
       </c>
@@ -73859,7 +73858,7 @@
         <v>181704</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>35017</v>
       </c>
@@ -73882,7 +73881,7 @@
         <v>260088</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>35018</v>
       </c>
@@ -73905,7 +73904,7 @@
         <v>257556</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>35019</v>
       </c>
@@ -73928,7 +73927,7 @@
         <v>160322</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>35020</v>
       </c>
@@ -73951,7 +73950,7 @@
         <v>562096</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>35021</v>
       </c>
@@ -73974,7 +73973,7 @@
         <v>346457</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>35022</v>
       </c>
@@ -73997,7 +73996,7 @@
         <v>178442</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>35023</v>
       </c>
@@ -74020,7 +74019,7 @@
         <v>207173</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>35024</v>
       </c>
@@ -74043,7 +74042,7 @@
         <v>502308</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>35025</v>
       </c>
@@ -74066,7 +74065,7 @@
         <v>308738</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>35026</v>
       </c>
@@ -74089,7 +74088,7 @@
         <v>264271</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>35027</v>
       </c>
@@ -74112,7 +74111,7 @@
         <v>557084</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>35028</v>
       </c>
@@ -74135,7 +74134,7 @@
         <v>519598</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>35029</v>
       </c>
@@ -74158,7 +74157,7 @@
         <v>183687</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>35030</v>
       </c>
@@ -74181,7 +74180,7 @@
         <v>409437</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>35031</v>
       </c>
@@ -74204,7 +74203,7 @@
         <v>393855</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>35032</v>
       </c>
@@ -74227,7 +74226,7 @@
         <v>2620907</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>35033</v>
       </c>
@@ -74250,7 +74249,7 @@
         <v>178894</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>35034</v>
       </c>
@@ -74273,7 +74272,7 @@
         <v>116165</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>35035</v>
       </c>
@@ -74296,7 +74295,7 @@
         <v>158322</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>35036</v>
       </c>
@@ -74319,7 +74318,7 @@
         <v>573432</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>35037</v>
       </c>
@@ -74342,7 +74341,7 @@
         <v>103801</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>35038</v>
       </c>
@@ -74365,7 +74364,7 @@
         <v>336242</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>35039</v>
       </c>
@@ -74388,7 +74387,7 @@
         <v>263993</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>35040</v>
       </c>
@@ -74411,7 +74410,7 @@
         <v>290053</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>35041</v>
       </c>
@@ -74434,7 +74433,7 @@
         <v>240488</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>35042</v>
       </c>
@@ -74457,7 +74456,7 @@
         <v>191648</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>35043</v>
       </c>
@@ -74480,7 +74479,7 @@
         <v>323162</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>35044</v>
       </c>
@@ -74503,7 +74502,7 @@
         <v>131703</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>35045</v>
       </c>
@@ -74526,7 +74525,7 @@
         <v>189320</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>35046</v>
       </c>
@@ -74549,7 +74548,7 @@
         <v>1253918</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>35047</v>
       </c>
@@ -74572,7 +74571,7 @@
         <v>698959</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>35048</v>
       </c>
@@ -74595,7 +74594,7 @@
         <v>474264</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>35049</v>
       </c>
@@ -74618,7 +74617,7 @@
         <v>64802</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>35050</v>
       </c>
@@ -74641,7 +74640,7 @@
         <v>1426386</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>35051</v>
       </c>
@@ -74664,7 +74663,7 @@
         <v>402280</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>35052</v>
       </c>
@@ -74687,7 +74686,7 @@
         <v>26294</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>35053</v>
       </c>
@@ -74710,7 +74709,7 @@
         <v>61183</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>35054</v>
       </c>
@@ -74733,7 +74732,7 @@
         <v>281778</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>35055</v>
       </c>
@@ -74756,7 +74755,7 @@
         <v>243640</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>35056</v>
       </c>
@@ -74779,7 +74778,7 @@
         <v>85477</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>35060</v>
       </c>
@@ -74825,7 +74824,7 @@
         <v>19617989</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>35062</v>
       </c>
@@ -74848,7 +74847,7 @@
         <v>25861</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>35063</v>
       </c>
@@ -74871,7 +74870,7 @@
         <v>1603289</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>41001</v>
       </c>
@@ -74894,7 +74893,7 @@
         <v>270886</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>41002</v>
       </c>
@@ -74917,7 +74916,7 @@
         <v>265131</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>41003</v>
       </c>
@@ -74940,7 +74939,7 @@
         <v>142455</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>41004</v>
       </c>
@@ -74963,7 +74962,7 @@
         <v>116764</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>41005</v>
       </c>
@@ -74986,7 +74985,7 @@
         <v>217490</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>41006</v>
       </c>
@@ -75009,7 +75008,7 @@
         <v>155406</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>41007</v>
       </c>
@@ -75032,7 +75031,7 @@
         <v>82542</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>41008</v>
       </c>
@@ -75055,7 +75054,7 @@
         <v>19395</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>41009</v>
       </c>
@@ -75078,7 +75077,7 @@
         <v>584370</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>41010</v>
       </c>
@@ -75101,7 +75100,7 @@
         <v>286963</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>41011</v>
       </c>
@@ -75124,7 +75123,7 @@
         <v>736355</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>41012</v>
       </c>
@@ -75147,7 +75146,7 @@
         <v>46360</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>41013</v>
       </c>
@@ -75170,7 +75169,7 @@
         <v>137619</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>41014</v>
       </c>
@@ -75193,7 +75192,7 @@
         <v>62797</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>41015</v>
       </c>
@@ -75216,7 +75215,7 @@
         <v>172803</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>41016</v>
       </c>
@@ -75239,7 +75238,7 @@
         <v>122502</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>41017</v>
       </c>
@@ -75262,7 +75261,7 @@
         <v>77320</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>41018</v>
       </c>
@@ -75285,7 +75284,7 @@
         <v>98837</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>41019</v>
       </c>
@@ -75308,7 +75307,7 @@
         <v>158994</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>41020</v>
       </c>
@@ -75331,7 +75330,7 @@
         <v>100307</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>41021</v>
       </c>
@@ -75354,7 +75353,7 @@
         <v>430075</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>41022</v>
       </c>
@@ -75377,7 +75376,7 @@
         <v>377799</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>41023</v>
       </c>
@@ -75400,7 +75399,7 @@
         <v>432805</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>41024</v>
       </c>
@@ -75423,7 +75422,7 @@
         <v>408785</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>41025</v>
       </c>
@@ -75446,7 +75445,7 @@
         <v>89673</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>41026</v>
       </c>
@@ -75469,7 +75468,7 @@
         <v>238340</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>41027</v>
       </c>
@@ -75492,7 +75491,7 @@
         <v>159397</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>41028</v>
       </c>
@@ -75515,7 +75514,7 @@
         <v>75744</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>41029</v>
       </c>
@@ -75538,7 +75537,7 @@
         <v>378268</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>41030</v>
       </c>
@@ -75561,7 +75560,7 @@
         <v>90358</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>41031</v>
       </c>
@@ -75584,7 +75583,7 @@
         <v>128316</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>41032</v>
       </c>
@@ -75607,7 +75606,7 @@
         <v>97530</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>41033</v>
       </c>
@@ -75630,7 +75629,7 @@
         <v>150206</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>41034</v>
       </c>
@@ -75653,7 +75652,7 @@
         <v>62312</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>41035</v>
       </c>
@@ -75676,7 +75675,7 @@
         <v>32414</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>41036</v>
       </c>
@@ -75699,7 +75698,7 @@
         <v>49451</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>41037</v>
       </c>
@@ -75722,7 +75721,7 @@
         <v>3055104</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>41038</v>
       </c>
@@ -75745,7 +75744,7 @@
         <v>265362</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>41039</v>
       </c>
@@ -75768,7 +75767,7 @@
         <v>58223</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>42001</v>
       </c>
@@ -75791,7 +75790,7 @@
         <v>187551</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>42002</v>
       </c>
@@ -75814,7 +75813,7 @@
         <v>405123</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>42003</v>
       </c>
@@ -75837,7 +75836,7 @@
         <v>152439</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>42004</v>
       </c>
@@ -75860,7 +75859,7 @@
         <v>329446</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>42005</v>
       </c>
@@ -75883,7 +75882,7 @@
         <v>141981</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>42006</v>
       </c>
@@ -75906,7 +75905,7 @@
         <v>241546</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>42007</v>
       </c>
@@ -75929,7 +75928,7 @@
         <v>126394</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>42008</v>
       </c>
@@ -75952,7 +75951,7 @@
         <v>842821</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>42009</v>
       </c>
@@ -75975,7 +75974,7 @@
         <v>119665</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>42010</v>
       </c>
@@ -75998,7 +75997,7 @@
         <v>284169</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>42011</v>
       </c>
@@ -76021,7 +76020,7 @@
         <v>204913</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>42012</v>
       </c>
@@ -76044,7 +76043,7 @@
         <v>689909</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>42013</v>
       </c>
@@ -76067,7 +76066,7 @@
         <v>558671</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>42014</v>
       </c>
@@ -76090,7 +76089,7 @@
         <v>55780</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>42015</v>
       </c>
@@ -76113,7 +76112,7 @@
         <v>91909</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>42016</v>
       </c>
@@ -76136,7 +76135,7 @@
         <v>884398</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>42017</v>
       </c>
@@ -76159,7 +76158,7 @@
         <v>18380</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>42018</v>
       </c>
@@ -76182,7 +76181,7 @@
         <v>384621</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>42019</v>
       </c>
@@ -76205,7 +76204,7 @@
         <v>383884</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>42020</v>
       </c>
@@ -76228,7 +76227,7 @@
         <v>174353</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>43001</v>
       </c>
@@ -76251,7 +76250,7 @@
         <v>157299</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>43002</v>
       </c>
@@ -76274,7 +76273,7 @@
         <v>140715</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>43003</v>
       </c>
@@ -76297,7 +76296,7 @@
         <v>174621</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>43004</v>
       </c>
@@ -76320,7 +76319,7 @@
         <v>211685</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>43005</v>
       </c>
@@ -76343,7 +76342,7 @@
         <v>60635</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>43006</v>
       </c>
@@ -76366,7 +76365,7 @@
         <v>66075</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>43007</v>
       </c>
@@ -76389,7 +76388,7 @@
         <v>197014</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>43008</v>
       </c>
@@ -76412,7 +76411,7 @@
         <v>183938</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>43009</v>
       </c>
@@ -76435,7 +76434,7 @@
         <v>159981</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>43010</v>
       </c>
@@ -76458,7 +76457,7 @@
         <v>327778</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>43011</v>
       </c>
@@ -76481,7 +76480,7 @@
         <v>150229</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>43012</v>
       </c>
@@ -76504,7 +76503,7 @@
         <v>42227</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>43013</v>
       </c>
@@ -76527,7 +76526,7 @@
         <v>71504</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>43014</v>
       </c>
@@ -76550,7 +76549,7 @@
         <v>127233</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>43015</v>
       </c>
@@ -76573,7 +76572,7 @@
         <v>151356</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>43016</v>
       </c>
@@ -76596,7 +76595,7 @@
         <v>783445</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>43017</v>
       </c>
@@ -76619,7 +76618,7 @@
         <v>110704</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>43018</v>
       </c>
@@ -76642,7 +76641,7 @@
         <v>363030</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>43019</v>
       </c>
@@ -76665,7 +76664,7 @@
         <v>63254</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>43020</v>
       </c>
@@ -76688,7 +76687,7 @@
         <v>320261</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>43021</v>
       </c>
@@ -76711,7 +76710,7 @@
         <v>305651</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>43022</v>
       </c>
@@ -76734,7 +76733,7 @@
         <v>152980</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>43023</v>
       </c>
@@ -76757,7 +76756,7 @@
         <v>128856</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>43024</v>
       </c>
@@ -76780,7 +76779,7 @@
         <v>282124</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>43025</v>
       </c>
@@ -76826,7 +76825,7 @@
         <v>3712125</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>43027</v>
       </c>
@@ -76849,7 +76848,7 @@
         <v>344840</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>43028</v>
       </c>
@@ -76872,7 +76871,7 @@
         <v>130470</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>43029</v>
       </c>
@@ -76895,7 +76894,7 @@
         <v>364352</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>43030</v>
       </c>
@@ -76918,7 +76917,7 @@
         <v>185124</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>43031</v>
       </c>
@@ -76941,7 +76940,7 @@
         <v>182595</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>43032</v>
       </c>
@@ -76964,7 +76963,7 @@
         <v>107672</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>43033</v>
       </c>
@@ -76987,7 +76986,7 @@
         <v>482438</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>43034</v>
       </c>
@@ -77010,7 +77009,7 @@
         <v>53168</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>43035</v>
       </c>
@@ -77033,7 +77032,7 @@
         <v>259697</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>50001</v>
       </c>
@@ -77056,7 +77055,7 @@
         <v>138794</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>50002</v>
       </c>
@@ -77079,7 +77078,7 @@
         <v>105446</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>50003</v>
       </c>
@@ -77102,7 +77101,7 @@
         <v>117215</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>50004</v>
       </c>
@@ -77125,7 +77124,7 @@
         <v>874205</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>50005</v>
       </c>
@@ -77148,7 +77147,7 @@
         <v>65217</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>50006</v>
       </c>
@@ -77171,7 +77170,7 @@
         <v>76442</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>50007</v>
       </c>
@@ -77194,7 +77193,7 @@
         <v>156176</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>50008</v>
       </c>
@@ -77217,7 +77216,7 @@
         <v>88368</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>50009</v>
       </c>
@@ -77240,7 +77239,7 @@
         <v>105286</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>50010</v>
       </c>
@@ -77263,7 +77262,7 @@
         <v>500955</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>50011</v>
       </c>
@@ -77286,7 +77285,7 @@
         <v>226179</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>51001</v>
       </c>
@@ -77309,7 +77308,7 @@
         <v>137536</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>51002</v>
       </c>
@@ -77332,7 +77331,7 @@
         <v>99164</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>51003</v>
       </c>
@@ -77355,7 +77354,7 @@
         <v>143380</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>51004</v>
       </c>
@@ -77378,7 +77377,7 @@
         <v>89250</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>51005</v>
       </c>
@@ -77401,7 +77400,7 @@
         <v>75598</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>51006</v>
       </c>
@@ -77424,7 +77423,7 @@
         <v>191179</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>51007</v>
       </c>
@@ -77447,7 +77446,7 @@
         <v>173103</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>51008</v>
       </c>
@@ -77470,7 +77469,7 @@
         <v>32886</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>51009</v>
       </c>
@@ -77493,7 +77492,7 @@
         <v>112106</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>51010</v>
       </c>
@@ -77516,7 +77515,7 @@
         <v>99084</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>51011</v>
       </c>
@@ -77539,7 +77538,7 @@
         <v>88879</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>51012</v>
       </c>
@@ -77562,7 +77561,7 @@
         <v>67792</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>51013</v>
       </c>
@@ -77585,7 +77584,7 @@
         <v>144796</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>51014</v>
       </c>
@@ -77608,7 +77607,7 @@
         <v>107409</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>51015</v>
       </c>
@@ -77631,7 +77630,7 @@
         <v>32643</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>51016</v>
       </c>
@@ -77654,7 +77653,7 @@
         <v>30894</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>51017</v>
       </c>
@@ -77677,7 +77676,7 @@
         <v>851859</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>51018</v>
       </c>
@@ -77700,7 +77699,7 @@
         <v>132179</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>51019</v>
       </c>
@@ -77723,7 +77722,7 @@
         <v>83726</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>51020</v>
       </c>
@@ -77746,7 +77745,7 @@
         <v>52751</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>51021</v>
       </c>
@@ -77769,7 +77768,7 @@
         <v>275710</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>51022</v>
       </c>
@@ -77792,7 +77791,7 @@
         <v>41019</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>52001</v>
       </c>
@@ -77815,7 +77814,7 @@
         <v>76680</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>52002</v>
       </c>
@@ -77838,7 +77837,7 @@
         <v>88372</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>52003</v>
       </c>
@@ -77861,7 +77860,7 @@
         <v>33448</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>52004</v>
       </c>
@@ -77884,7 +77883,7 @@
         <v>231437</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>52005</v>
       </c>
@@ -77907,7 +77906,7 @@
         <v>62656</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>52006</v>
       </c>
@@ -77930,7 +77929,7 @@
         <v>231086</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>52007</v>
       </c>
@@ -77953,7 +77952,7 @@
         <v>529250</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>52008</v>
       </c>
@@ -77976,7 +77975,7 @@
         <v>59075</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>52009</v>
       </c>
@@ -77999,7 +77998,7 @@
         <v>109610</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>52010</v>
       </c>
@@ -78022,7 +78021,7 @@
         <v>2127999</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>52011</v>
       </c>
@@ -78045,7 +78044,7 @@
         <v>107305</v>
       </c>
     </row>
-    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>52012</v>
       </c>
@@ -78068,7 +78067,7 @@
         <v>262045</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>52013</v>
       </c>
@@ -78091,7 +78090,7 @@
         <v>447401</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>52014</v>
       </c>
@@ -78114,7 +78113,7 @@
         <v>109191</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>52015</v>
       </c>
@@ -78137,7 +78136,7 @@
         <v>364246</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>52016</v>
       </c>
@@ -78160,7 +78159,7 @@
         <v>93136</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>52017</v>
       </c>
@@ -78183,7 +78182,7 @@
         <v>147191</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>52018</v>
       </c>
@@ -78206,7 +78205,7 @@
         <v>110837</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>53001</v>
       </c>
@@ -78230,17 +78229,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F553" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="11949284"/>
-        <filter val="19617989"/>
-        <filter val="3712125"/>
-        <filter val="3739802"/>
-        <filter val="4772563"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F553" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>